--- a/salida/reportes_Santa Lucia_valorizada.xlsx
+++ b/salida/reportes_Santa Lucia_valorizada.xlsx
@@ -11176,19 +11176,19 @@
         <v>0</v>
       </c>
       <c r="AE70">
-        <v>620.75</v>
+        <v>47.75</v>
       </c>
       <c r="AF70">
-        <v>112.6666666666667</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="AG70">
         <v>104</v>
       </c>
       <c r="AH70">
-        <v>9748.788741249999</v>
+        <v>749.9068262499999</v>
       </c>
       <c r="AI70">
-        <v>1769.413663333333</v>
+        <v>136.1087433333333</v>
       </c>
       <c r="AJ70">
         <v>1633.30492</v>
@@ -11292,19 +11292,19 @@
         <v>0</v>
       </c>
       <c r="AE71">
-        <v>979.3333333333334</v>
+        <v>75.33333333333334</v>
       </c>
       <c r="AF71">
-        <v>97.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG71">
         <v>104</v>
       </c>
       <c r="AH71">
-        <v>15380.28799666666</v>
+        <v>1183.099076666667</v>
       </c>
       <c r="AI71">
-        <v>1531.2233625</v>
+        <v>117.7864125</v>
       </c>
       <c r="AJ71">
         <v>1633.30492</v>

--- a/salida/reportes_Santa Lucia_valorizada.xlsx
+++ b/salida/reportes_Santa Lucia_valorizada.xlsx
@@ -127,7 +127,7 @@
     <t>COMPAÑÍA</t>
   </si>
   <si>
-    <t>Abr 2019</t>
+    <t>Abr. 19</t>
   </si>
   <si>
     <t>201904</t>
